--- a/natmiOut/OldD7/LR-pairs_lrc2p/Hbegf-Cd9.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Hbegf-Cd9.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.001042017644</v>
+        <v>21.97750833333333</v>
       </c>
       <c r="H2">
-        <v>18.001042017644</v>
+        <v>65.932525</v>
       </c>
       <c r="I2">
-        <v>0.502555927192463</v>
+        <v>0.5427578249542736</v>
       </c>
       <c r="J2">
-        <v>0.502555927192463</v>
+        <v>0.5427578249542736</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.1760434272081</v>
+        <v>40.314886</v>
       </c>
       <c r="N2">
-        <v>39.1760434272081</v>
+        <v>120.944658</v>
       </c>
       <c r="O2">
-        <v>0.2072700324638382</v>
+        <v>0.1963336494301312</v>
       </c>
       <c r="P2">
-        <v>0.2072700324638382</v>
+        <v>0.1963336494301312</v>
       </c>
       <c r="Q2">
-        <v>705.2096038182191</v>
+        <v>886.0207430223834</v>
       </c>
       <c r="R2">
-        <v>705.2096038182191</v>
+        <v>7974.18668720145</v>
       </c>
       <c r="S2">
-        <v>0.1041647833440761</v>
+        <v>0.1065616245300328</v>
       </c>
       <c r="T2">
-        <v>0.1041647833440761</v>
+        <v>0.1065616245300328</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.001042017644</v>
+        <v>21.97750833333333</v>
       </c>
       <c r="H3">
-        <v>18.001042017644</v>
+        <v>65.932525</v>
       </c>
       <c r="I3">
-        <v>0.502555927192463</v>
+        <v>0.5427578249542736</v>
       </c>
       <c r="J3">
-        <v>0.502555927192463</v>
+        <v>0.5427578249542736</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.90702026929689</v>
+        <v>69.65329366666667</v>
       </c>
       <c r="N3">
-        <v>67.90702026929689</v>
+        <v>208.959881</v>
       </c>
       <c r="O3">
-        <v>0.3592779940090737</v>
+        <v>0.3392118072814421</v>
       </c>
       <c r="P3">
-        <v>0.3592779940090737</v>
+        <v>0.3392118072814421</v>
       </c>
       <c r="Q3">
-        <v>1222.397125160616</v>
+        <v>1530.805842003281</v>
       </c>
       <c r="R3">
-        <v>1222.397125160616</v>
+        <v>13777.25257802952</v>
       </c>
       <c r="S3">
-        <v>0.1805572853990782</v>
+        <v>0.1841098627188837</v>
       </c>
       <c r="T3">
-        <v>0.1805572853990782</v>
+        <v>0.1841098627188837</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.001042017644</v>
+        <v>21.97750833333333</v>
       </c>
       <c r="H4">
-        <v>18.001042017644</v>
+        <v>65.932525</v>
       </c>
       <c r="I4">
-        <v>0.502555927192463</v>
+        <v>0.5427578249542736</v>
       </c>
       <c r="J4">
-        <v>0.502555927192463</v>
+        <v>0.5427578249542736</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.3870330025507</v>
+        <v>69.40355333333332</v>
       </c>
       <c r="N4">
-        <v>59.3870330025507</v>
+        <v>208.21066</v>
       </c>
       <c r="O4">
-        <v>0.3142010060623147</v>
+        <v>0.3379955709003387</v>
       </c>
       <c r="P4">
-        <v>0.3142010060623147</v>
+        <v>0.3379955709003388</v>
       </c>
       <c r="Q4">
-        <v>1069.028476382126</v>
+        <v>1525.317171746277</v>
       </c>
       <c r="R4">
-        <v>1069.028476382126</v>
+        <v>13727.8545457165</v>
       </c>
       <c r="S4">
-        <v>0.1579035779264512</v>
+        <v>0.1834497409060458</v>
       </c>
       <c r="T4">
-        <v>0.1579035779264512</v>
+        <v>0.1834497409060458</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.001042017644</v>
+        <v>21.97750833333333</v>
       </c>
       <c r="H5">
-        <v>18.001042017644</v>
+        <v>65.932525</v>
       </c>
       <c r="I5">
-        <v>0.502555927192463</v>
+        <v>0.5427578249542736</v>
       </c>
       <c r="J5">
-        <v>0.502555927192463</v>
+        <v>0.5427578249542736</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.5395877281566</v>
+        <v>25.96691433333334</v>
       </c>
       <c r="N5">
-        <v>22.5395877281566</v>
+        <v>77.90074300000001</v>
       </c>
       <c r="O5">
-        <v>0.1192509674647735</v>
+        <v>0.126458972388088</v>
       </c>
       <c r="P5">
-        <v>0.1192509674647735</v>
+        <v>0.126458972388088</v>
       </c>
       <c r="Q5">
-        <v>405.73606575492</v>
+        <v>570.6880761517862</v>
       </c>
       <c r="R5">
-        <v>405.73606575492</v>
+        <v>5136.192685366075</v>
       </c>
       <c r="S5">
-        <v>0.05993028052285749</v>
+        <v>0.06863659679931118</v>
       </c>
       <c r="T5">
-        <v>0.05993028052285749</v>
+        <v>0.06863659679931118</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.4611595193282</v>
+        <v>12.688376</v>
       </c>
       <c r="H6">
-        <v>12.4611595193282</v>
+        <v>38.065128</v>
       </c>
       <c r="I6">
-        <v>0.3478926147714645</v>
+        <v>0.3133528721960219</v>
       </c>
       <c r="J6">
-        <v>0.3478926147714645</v>
+        <v>0.3133528721960219</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>39.1760434272081</v>
+        <v>40.314886</v>
       </c>
       <c r="N6">
-        <v>39.1760434272081</v>
+        <v>120.944658</v>
       </c>
       <c r="O6">
-        <v>0.2072700324638382</v>
+        <v>0.1963336494301312</v>
       </c>
       <c r="P6">
-        <v>0.2072700324638382</v>
+        <v>0.1963336494301312</v>
       </c>
       <c r="Q6">
-        <v>488.1789264825692</v>
+        <v>511.530431965136</v>
       </c>
       <c r="R6">
-        <v>488.1789264825692</v>
+        <v>4603.773887686224</v>
       </c>
       <c r="S6">
-        <v>0.072107713557611</v>
+        <v>0.06152171295765846</v>
       </c>
       <c r="T6">
-        <v>0.072107713557611</v>
+        <v>0.06152171295765846</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.4611595193282</v>
+        <v>12.688376</v>
       </c>
       <c r="H7">
-        <v>12.4611595193282</v>
+        <v>38.065128</v>
       </c>
       <c r="I7">
-        <v>0.3478926147714645</v>
+        <v>0.3133528721960219</v>
       </c>
       <c r="J7">
-        <v>0.3478926147714645</v>
+        <v>0.3133528721960219</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>67.90702026929689</v>
+        <v>69.65329366666667</v>
       </c>
       <c r="N7">
-        <v>67.90702026929689</v>
+        <v>208.959881</v>
       </c>
       <c r="O7">
-        <v>0.3592779940090737</v>
+        <v>0.3392118072814421</v>
       </c>
       <c r="P7">
-        <v>0.3592779940090737</v>
+        <v>0.3392118072814421</v>
       </c>
       <c r="Q7">
-        <v>846.2002120579621</v>
+        <v>883.7871796810854</v>
       </c>
       <c r="R7">
-        <v>846.2002120579621</v>
+        <v>7954.084617129768</v>
       </c>
       <c r="S7">
-        <v>0.1249901607656632</v>
+        <v>0.1062929940944433</v>
       </c>
       <c r="T7">
-        <v>0.1249901607656632</v>
+        <v>0.1062929940944433</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.4611595193282</v>
+        <v>12.688376</v>
       </c>
       <c r="H8">
-        <v>12.4611595193282</v>
+        <v>38.065128</v>
       </c>
       <c r="I8">
-        <v>0.3478926147714645</v>
+        <v>0.3133528721960219</v>
       </c>
       <c r="J8">
-        <v>0.3478926147714645</v>
+        <v>0.3133528721960219</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>59.3870330025507</v>
+        <v>69.40355333333332</v>
       </c>
       <c r="N8">
-        <v>59.3870330025507</v>
+        <v>208.21066</v>
       </c>
       <c r="O8">
-        <v>0.3142010060623147</v>
+        <v>0.3379955709003387</v>
       </c>
       <c r="P8">
-        <v>0.3142010060623147</v>
+        <v>0.3379955709003388</v>
       </c>
       <c r="Q8">
-        <v>740.0312916243927</v>
+        <v>880.6183804293865</v>
       </c>
       <c r="R8">
-        <v>740.0312916243927</v>
+        <v>7925.565423864479</v>
       </c>
       <c r="S8">
-        <v>0.1093082095628434</v>
+        <v>0.1059118829311553</v>
       </c>
       <c r="T8">
-        <v>0.1093082095628434</v>
+        <v>0.1059118829311553</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.4611595193282</v>
+        <v>12.688376</v>
       </c>
       <c r="H9">
-        <v>12.4611595193282</v>
+        <v>38.065128</v>
       </c>
       <c r="I9">
-        <v>0.3478926147714645</v>
+        <v>0.3133528721960219</v>
       </c>
       <c r="J9">
-        <v>0.3478926147714645</v>
+        <v>0.3133528721960219</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.5395877281566</v>
+        <v>25.96691433333334</v>
       </c>
       <c r="N9">
-        <v>22.5395877281566</v>
+        <v>77.90074300000001</v>
       </c>
       <c r="O9">
-        <v>0.1192509674647735</v>
+        <v>0.126458972388088</v>
       </c>
       <c r="P9">
-        <v>0.1192509674647735</v>
+        <v>0.126458972388088</v>
       </c>
       <c r="Q9">
-        <v>280.8693981804517</v>
+        <v>329.4779726211227</v>
       </c>
       <c r="R9">
-        <v>280.8693981804517</v>
+        <v>2965.301753590104</v>
       </c>
       <c r="S9">
-        <v>0.04148653088534689</v>
+        <v>0.0396262822127648</v>
       </c>
       <c r="T9">
-        <v>0.04148653088534689</v>
+        <v>0.0396262822127648</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.90305036370696</v>
+        <v>2.008189666666667</v>
       </c>
       <c r="H10">
-        <v>1.90305036370696</v>
+        <v>6.024569</v>
       </c>
       <c r="I10">
-        <v>0.05312965988798234</v>
+        <v>0.04959436889042158</v>
       </c>
       <c r="J10">
-        <v>0.05312965988798234</v>
+        <v>0.04959436889042158</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>39.1760434272081</v>
+        <v>40.314886</v>
       </c>
       <c r="N10">
-        <v>39.1760434272081</v>
+        <v>120.944658</v>
       </c>
       <c r="O10">
-        <v>0.2072700324638382</v>
+        <v>0.1963336494301312</v>
       </c>
       <c r="P10">
-        <v>0.2072700324638382</v>
+        <v>0.1963336494301312</v>
       </c>
       <c r="Q10">
-        <v>74.55398369274803</v>
+        <v>80.95993747804467</v>
       </c>
       <c r="R10">
-        <v>74.55398369274803</v>
+        <v>728.639437302402</v>
       </c>
       <c r="S10">
-        <v>0.01101218632977478</v>
+        <v>0.009737043435440632</v>
       </c>
       <c r="T10">
-        <v>0.01101218632977478</v>
+        <v>0.009737043435440632</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.90305036370696</v>
+        <v>2.008189666666667</v>
       </c>
       <c r="H11">
-        <v>1.90305036370696</v>
+        <v>6.024569</v>
       </c>
       <c r="I11">
-        <v>0.05312965988798234</v>
+        <v>0.04959436889042158</v>
       </c>
       <c r="J11">
-        <v>0.05312965988798234</v>
+        <v>0.04959436889042158</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>67.90702026929689</v>
+        <v>69.65329366666667</v>
       </c>
       <c r="N11">
-        <v>67.90702026929689</v>
+        <v>208.959881</v>
       </c>
       <c r="O11">
-        <v>0.3592779940090737</v>
+        <v>0.3392118072814421</v>
       </c>
       <c r="P11">
-        <v>0.3592779940090737</v>
+        <v>0.3392118072814421</v>
       </c>
       <c r="Q11">
-        <v>129.2304796217414</v>
+        <v>139.8770245906988</v>
       </c>
       <c r="R11">
-        <v>129.2304796217414</v>
+        <v>1258.893221316289</v>
       </c>
       <c r="S11">
-        <v>0.01908831762693864</v>
+        <v>0.01682299550230243</v>
       </c>
       <c r="T11">
-        <v>0.01908831762693864</v>
+        <v>0.01682299550230243</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.90305036370696</v>
+        <v>2.008189666666667</v>
       </c>
       <c r="H12">
-        <v>1.90305036370696</v>
+        <v>6.024569</v>
       </c>
       <c r="I12">
-        <v>0.05312965988798234</v>
+        <v>0.04959436889042158</v>
       </c>
       <c r="J12">
-        <v>0.05312965988798234</v>
+        <v>0.04959436889042158</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>59.3870330025507</v>
+        <v>69.40355333333332</v>
       </c>
       <c r="N12">
-        <v>59.3870330025507</v>
+        <v>208.21066</v>
       </c>
       <c r="O12">
-        <v>0.3142010060623147</v>
+        <v>0.3379955709003387</v>
       </c>
       <c r="P12">
-        <v>0.3142010060623147</v>
+        <v>0.3379955709003388</v>
       </c>
       <c r="Q12">
-        <v>113.0165147549813</v>
+        <v>139.3754986339489</v>
       </c>
       <c r="R12">
-        <v>113.0165147549813</v>
+        <v>1254.37948770554</v>
       </c>
       <c r="S12">
-        <v>0.01669339258855266</v>
+        <v>0.01676267702656004</v>
       </c>
       <c r="T12">
-        <v>0.01669339258855266</v>
+        <v>0.01676267702656004</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.90305036370696</v>
+        <v>2.008189666666667</v>
       </c>
       <c r="H13">
-        <v>1.90305036370696</v>
+        <v>6.024569</v>
       </c>
       <c r="I13">
-        <v>0.05312965988798234</v>
+        <v>0.04959436889042158</v>
       </c>
       <c r="J13">
-        <v>0.05312965988798234</v>
+        <v>0.04959436889042158</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.5395877281566</v>
+        <v>25.96691433333334</v>
       </c>
       <c r="N13">
-        <v>22.5395877281566</v>
+        <v>77.90074300000001</v>
       </c>
       <c r="O13">
-        <v>0.1192509674647735</v>
+        <v>0.126458972388088</v>
       </c>
       <c r="P13">
-        <v>0.1192509674647735</v>
+        <v>0.126458972388088</v>
       </c>
       <c r="Q13">
-        <v>42.89397062387335</v>
+        <v>52.14648903941855</v>
       </c>
       <c r="R13">
-        <v>42.89397062387335</v>
+        <v>469.318401354767</v>
       </c>
       <c r="S13">
-        <v>0.006335763342716265</v>
+        <v>0.006271652926118472</v>
       </c>
       <c r="T13">
-        <v>0.006335763342716265</v>
+        <v>0.006271652926118472</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.45373071128031</v>
+        <v>3.818218</v>
       </c>
       <c r="H14">
-        <v>3.45373071128031</v>
+        <v>11.454654</v>
       </c>
       <c r="I14">
-        <v>0.09642179814809024</v>
+        <v>0.09429493395928291</v>
       </c>
       <c r="J14">
-        <v>0.09642179814809024</v>
+        <v>0.09429493395928291</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>39.1760434272081</v>
+        <v>40.314886</v>
       </c>
       <c r="N14">
-        <v>39.1760434272081</v>
+        <v>120.944658</v>
       </c>
       <c r="O14">
-        <v>0.2072700324638382</v>
+        <v>0.1963336494301312</v>
       </c>
       <c r="P14">
-        <v>0.2072700324638382</v>
+        <v>0.1963336494301312</v>
       </c>
       <c r="Q14">
-        <v>135.3035043309997</v>
+        <v>153.931023393148</v>
       </c>
       <c r="R14">
-        <v>135.3035043309997</v>
+        <v>1385.379210538332</v>
       </c>
       <c r="S14">
-        <v>0.01998534923237632</v>
+        <v>0.01851326850699922</v>
       </c>
       <c r="T14">
-        <v>0.01998534923237632</v>
+        <v>0.01851326850699922</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.45373071128031</v>
+        <v>3.818218</v>
       </c>
       <c r="H15">
-        <v>3.45373071128031</v>
+        <v>11.454654</v>
       </c>
       <c r="I15">
-        <v>0.09642179814809024</v>
+        <v>0.09429493395928291</v>
       </c>
       <c r="J15">
-        <v>0.09642179814809024</v>
+        <v>0.09429493395928291</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>67.90702026929689</v>
+        <v>69.65329366666667</v>
       </c>
       <c r="N15">
-        <v>67.90702026929689</v>
+        <v>208.959881</v>
       </c>
       <c r="O15">
-        <v>0.3592779940090737</v>
+        <v>0.3392118072814421</v>
       </c>
       <c r="P15">
-        <v>0.3592779940090737</v>
+        <v>0.3392118072814421</v>
       </c>
       <c r="Q15">
-        <v>234.5325614156052</v>
+        <v>265.9514596373527</v>
       </c>
       <c r="R15">
-        <v>234.5325614156052</v>
+        <v>2393.563136736174</v>
       </c>
       <c r="S15">
-        <v>0.03464223021739368</v>
+        <v>0.03198595496581258</v>
       </c>
       <c r="T15">
-        <v>0.03464223021739368</v>
+        <v>0.03198595496581258</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.45373071128031</v>
+        <v>3.818218</v>
       </c>
       <c r="H16">
-        <v>3.45373071128031</v>
+        <v>11.454654</v>
       </c>
       <c r="I16">
-        <v>0.09642179814809024</v>
+        <v>0.09429493395928291</v>
       </c>
       <c r="J16">
-        <v>0.09642179814809024</v>
+        <v>0.09429493395928291</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>59.3870330025507</v>
+        <v>69.40355333333332</v>
       </c>
       <c r="N16">
-        <v>59.3870330025507</v>
+        <v>208.21066</v>
       </c>
       <c r="O16">
-        <v>0.3142010060623147</v>
+        <v>0.3379955709003387</v>
       </c>
       <c r="P16">
-        <v>0.3142010060623147</v>
+        <v>0.3379955709003388</v>
       </c>
       <c r="Q16">
-        <v>205.1068197327267</v>
+        <v>264.9978966012933</v>
       </c>
       <c r="R16">
-        <v>205.1068197327267</v>
+        <v>2384.98106941164</v>
       </c>
       <c r="S16">
-        <v>0.03029582598446738</v>
+        <v>0.03187127003657757</v>
       </c>
       <c r="T16">
-        <v>0.03029582598446738</v>
+        <v>0.03187127003657757</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.45373071128031</v>
+        <v>3.818218</v>
       </c>
       <c r="H17">
-        <v>3.45373071128031</v>
+        <v>11.454654</v>
       </c>
       <c r="I17">
-        <v>0.09642179814809024</v>
+        <v>0.09429493395928291</v>
       </c>
       <c r="J17">
-        <v>0.09642179814809024</v>
+        <v>0.09429493395928291</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.5395877281566</v>
+        <v>25.96691433333334</v>
       </c>
       <c r="N17">
-        <v>22.5395877281566</v>
+        <v>77.90074300000001</v>
       </c>
       <c r="O17">
-        <v>0.1192509674647735</v>
+        <v>0.126458972388088</v>
       </c>
       <c r="P17">
-        <v>0.1192509674647735</v>
+        <v>0.126458972388088</v>
       </c>
       <c r="Q17">
-        <v>77.84566635633124</v>
+        <v>99.14733971199134</v>
       </c>
       <c r="R17">
-        <v>77.84566635633124</v>
+        <v>892.326057407922</v>
       </c>
       <c r="S17">
-        <v>0.01149839271385287</v>
+        <v>0.01192444044989354</v>
       </c>
       <c r="T17">
-        <v>0.01149839271385287</v>
+        <v>0.01192444044989354</v>
       </c>
     </row>
   </sheetData>
